--- a/source_code/Description_of_Components/input_file_template/template_transitory_input.xlsx
+++ b/source_code/Description_of_Components/input_file_template/template_transitory_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/Description_of_Components/input_file_template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniele.Placido\Documents\OPENSC2\source_code\Description_of_Components\input_file_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{8A1A4B2A-21A8-4A23-BF39-C5996AD9CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BC59C7-AF1D-4B75-B287-DAE4B7D1DA77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55E32BE-15F2-4C8D-BA86-F87C7FD363AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,16 +119,16 @@
     <t>STPMAX</t>
   </si>
   <si>
-    <t>conductor_definition.xlsx</t>
-  </si>
-  <si>
     <t>ENVIRONMENT</t>
   </si>
   <si>
     <t>file to define the external environment</t>
   </si>
   <si>
-    <t>environment_input.xlsx</t>
+    <t>template_conductor_definition.xlsx</t>
+  </si>
+  <si>
+    <t>template_environment_input.xlsx</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,12 +632,12 @@
         <v>20</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>13</v>
@@ -646,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>30</v>
